--- a/Assets/DataTable/XlsFile/Character_Link.xlsx
+++ b/Assets/DataTable/XlsFile/Character_Link.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学校\授業使用\coly_project\Funkeln\Assets\DataTable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Documents\GitHub\Funkeln\Assets\DataTable\XlsFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED567811-368E-4CDF-807F-FE351E771CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{368135F8-423D-46A4-9A36-2AF650AD9FC3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>CharacterName</t>
     <phoneticPr fontId="3"/>
@@ -120,6 +111,54 @@
   </si>
   <si>
     <t>Transform</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Still_1205</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>attribute</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unnamend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DSC00549_1</t>
+  </si>
+  <si>
+    <t>DSC00295</t>
+  </si>
+  <si>
+    <t>ファンタジーの街並み</t>
+    <rPh sb="7" eb="9">
+      <t>マチナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雪に閉ざされた山</t>
+    <rPh sb="0" eb="1">
+      <t>ユキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光の並木道</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ナミキミチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -176,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -240,11 +279,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -259,6 +322,12 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,194 +610,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.09765625" customWidth="1"/>
-    <col min="3" max="3" width="21.3984375" customWidth="1"/>
-    <col min="4" max="4" width="14.09765625" customWidth="1"/>
-    <col min="5" max="5" width="26.296875" customWidth="1"/>
-    <col min="6" max="6" width="9.19921875" customWidth="1"/>
-    <col min="7" max="8" width="14.09765625" customWidth="1"/>
-    <col min="13" max="13" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.3984375" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" customWidth="1"/>
+    <col min="6" max="6" width="26.296875" customWidth="1"/>
+    <col min="7" max="7" width="9.19921875" customWidth="1"/>
+    <col min="8" max="9" width="14.09765625" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="18.600000000000001" thickBot="1">
+    <row r="1" spans="1:18" s="3" customFormat="1" ht="18.600000000000001" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1">
+    <row r="2" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>101000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="18.600000000000001" thickBot="1">
+    <row r="3" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <v>101000</v>
       </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="5">
+      <c r="E4" s="5">
         <v>102000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18.600000000000001" thickBot="1">
+    <row r="5" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="E5" s="5">
         <v>102000</v>
       </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="5">
+      <c r="E6" s="5">
         <v>103000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18.600000000000001" thickBot="1">
+    <row r="7" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="5">
+      <c r="E7" s="5">
         <v>103000</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18.600000000000001" thickBot="1">
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>104000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="18.600000000000001" thickBot="1">
+    <row r="9" spans="1:18" ht="18.600000000000001" thickBot="1">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E9" s="5">
         <v>104000</v>
       </c>
-      <c r="F9">
-        <v>1</v>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="7">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>